--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>66.27558733333335</v>
+        <v>99.28451533333333</v>
       </c>
       <c r="H2">
-        <v>198.826762</v>
+        <v>297.853546</v>
       </c>
       <c r="I2">
-        <v>0.01593739484152995</v>
+        <v>0.02270354261926982</v>
       </c>
       <c r="J2">
-        <v>0.01593739484152995</v>
+        <v>0.02270354261926982</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.714516333333334</v>
+        <v>7.407905</v>
       </c>
       <c r="N2">
-        <v>26.143549</v>
+        <v>22.223715</v>
       </c>
       <c r="O2">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="P2">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="Q2">
-        <v>577.5596883175933</v>
+        <v>735.4902575603766</v>
       </c>
       <c r="R2">
-        <v>5198.037194858339</v>
+        <v>6619.41231804339</v>
       </c>
       <c r="S2">
-        <v>0.002920137223384201</v>
+        <v>0.00358089895992154</v>
       </c>
       <c r="T2">
-        <v>0.002920137223384201</v>
+        <v>0.00358089895992154</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>66.27558733333335</v>
+        <v>99.28451533333333</v>
       </c>
       <c r="H3">
-        <v>198.826762</v>
+        <v>297.853546</v>
       </c>
       <c r="I3">
-        <v>0.01593739484152995</v>
+        <v>0.02270354261926982</v>
       </c>
       <c r="J3">
-        <v>0.01593739484152995</v>
+        <v>0.02270354261926982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>49.462564</v>
       </c>
       <c r="O3">
-        <v>0.3466554324170239</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="P3">
-        <v>0.346655432417024</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="Q3">
-        <v>1092.72016003753</v>
+        <v>1636.955564627994</v>
       </c>
       <c r="R3">
-        <v>9834.48144033777</v>
+        <v>14732.60008165194</v>
       </c>
       <c r="S3">
-        <v>0.005524784500391411</v>
+        <v>0.007969884602221214</v>
       </c>
       <c r="T3">
-        <v>0.005524784500391411</v>
+        <v>0.007969884602221214</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>66.27558733333335</v>
+        <v>99.28451533333333</v>
       </c>
       <c r="H4">
-        <v>198.826762</v>
+        <v>297.853546</v>
       </c>
       <c r="I4">
-        <v>0.01593739484152995</v>
+        <v>0.02270354261926982</v>
       </c>
       <c r="J4">
-        <v>0.01593739484152995</v>
+        <v>0.02270354261926982</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.735891666666667</v>
+        <v>5.464566666666666</v>
       </c>
       <c r="N4">
-        <v>11.207675</v>
+        <v>16.3937</v>
       </c>
       <c r="O4">
-        <v>0.07854832239417409</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="P4">
-        <v>0.0785483223941741</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="Q4">
-        <v>247.598414422039</v>
+        <v>542.5468530066888</v>
       </c>
       <c r="R4">
-        <v>2228.385729798351</v>
+        <v>4882.9216770602</v>
       </c>
       <c r="S4">
-        <v>0.001251855628135742</v>
+        <v>0.002641510804078694</v>
       </c>
       <c r="T4">
-        <v>0.001251855628135742</v>
+        <v>0.002641510804078694</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>66.27558733333335</v>
+        <v>99.28451533333333</v>
       </c>
       <c r="H5">
-        <v>198.826762</v>
+        <v>297.853546</v>
       </c>
       <c r="I5">
-        <v>0.01593739484152995</v>
+        <v>0.02270354261926982</v>
       </c>
       <c r="J5">
-        <v>0.01593739484152995</v>
+        <v>0.02270354261926982</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.62376966666667</v>
+        <v>17.60745533333333</v>
       </c>
       <c r="N5">
-        <v>55.871309</v>
+        <v>52.822366</v>
       </c>
       <c r="O5">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="P5">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="Q5">
-        <v>1234.301273019051</v>
+        <v>1748.147669023315</v>
       </c>
       <c r="R5">
-        <v>11108.71145717146</v>
+        <v>15733.32902120984</v>
       </c>
       <c r="S5">
-        <v>0.006240617489618596</v>
+        <v>0.008511248253048373</v>
       </c>
       <c r="T5">
-        <v>0.006240617489618596</v>
+        <v>0.008511248253048373</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>12032.605713</v>
       </c>
       <c r="I6">
-        <v>0.9644998806575645</v>
+        <v>0.9171714767027319</v>
       </c>
       <c r="J6">
-        <v>0.9644998806575644</v>
+        <v>0.9171714767027318</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.714516333333334</v>
+        <v>7.407905</v>
       </c>
       <c r="N6">
-        <v>26.143549</v>
+        <v>22.223715</v>
       </c>
       <c r="O6">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="P6">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="Q6">
-        <v>34952.77967283283</v>
+        <v>29712.13334145375</v>
       </c>
       <c r="R6">
-        <v>314575.0170554955</v>
+        <v>267409.2000730838</v>
       </c>
       <c r="S6">
-        <v>0.1767209780182242</v>
+        <v>0.1446601722942982</v>
       </c>
       <c r="T6">
-        <v>0.1767209780182242</v>
+        <v>0.1446601722942982</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>12032.605713</v>
       </c>
       <c r="I7">
-        <v>0.9644998806575645</v>
+        <v>0.9171714767027319</v>
       </c>
       <c r="J7">
-        <v>0.9644998806575644</v>
+        <v>0.9171714767027318</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>49.462564</v>
       </c>
       <c r="O7">
-        <v>0.3466554324170239</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="P7">
-        <v>0.346655432417024</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="Q7">
         <v>66129.28112955869</v>
@@ -883,10 +883,10 @@
         <v>595163.5301660282</v>
       </c>
       <c r="S7">
-        <v>0.334349123195516</v>
+        <v>0.3219652083532278</v>
       </c>
       <c r="T7">
-        <v>0.334349123195516</v>
+        <v>0.3219652083532278</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>12032.605713</v>
       </c>
       <c r="I8">
-        <v>0.9644998806575645</v>
+        <v>0.9171714767027319</v>
       </c>
       <c r="J8">
-        <v>0.9644998806575644</v>
+        <v>0.9171714767027318</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.735891666666667</v>
+        <v>5.464566666666666</v>
       </c>
       <c r="N8">
-        <v>11.207675</v>
+        <v>16.3937</v>
       </c>
       <c r="O8">
-        <v>0.07854832239417409</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="P8">
-        <v>0.0785483223941741</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="Q8">
-        <v>14984.17047049415</v>
+        <v>21917.65869746757</v>
       </c>
       <c r="R8">
-        <v>134857.5342344473</v>
+        <v>197258.9282772081</v>
       </c>
       <c r="S8">
-        <v>0.0757598475750328</v>
+        <v>0.1067110276810622</v>
       </c>
       <c r="T8">
-        <v>0.07575984757503282</v>
+        <v>0.1067110276810622</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>12032.605713</v>
       </c>
       <c r="I9">
-        <v>0.9644998806575645</v>
+        <v>0.9171714767027319</v>
       </c>
       <c r="J9">
-        <v>0.9644998806575644</v>
+        <v>0.9171714767027318</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.62376966666667</v>
+        <v>17.60745533333333</v>
       </c>
       <c r="N9">
-        <v>55.871309</v>
+        <v>52.822366</v>
       </c>
       <c r="O9">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="P9">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="Q9">
-        <v>74697.49242957649</v>
+        <v>70621.18921175301</v>
       </c>
       <c r="R9">
-        <v>672277.4318661884</v>
+        <v>635590.702905777</v>
       </c>
       <c r="S9">
-        <v>0.3776699318687916</v>
+        <v>0.3438350683741436</v>
       </c>
       <c r="T9">
-        <v>0.3776699318687916</v>
+        <v>0.3438350683741436</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>73.63686100000001</v>
+        <v>249.2612966666667</v>
       </c>
       <c r="H10">
-        <v>220.910583</v>
+        <v>747.7838899999999</v>
       </c>
       <c r="I10">
-        <v>0.01770757191098638</v>
+        <v>0.05699896356653876</v>
       </c>
       <c r="J10">
-        <v>0.01770757191098637</v>
+        <v>0.05699896356653875</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.714516333333334</v>
+        <v>7.407905</v>
       </c>
       <c r="N10">
-        <v>26.143549</v>
+        <v>22.223715</v>
       </c>
       <c r="O10">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="P10">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="Q10">
-        <v>641.7096279198964</v>
+        <v>1846.504005883483</v>
       </c>
       <c r="R10">
-        <v>5775.386651279068</v>
+        <v>16618.53605295135</v>
       </c>
       <c r="S10">
-        <v>0.003244478811447954</v>
+        <v>0.00899011809631799</v>
       </c>
       <c r="T10">
-        <v>0.003244478811447954</v>
+        <v>0.008990118096317992</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>73.63686100000001</v>
+        <v>249.2612966666667</v>
       </c>
       <c r="H11">
-        <v>220.910583</v>
+        <v>747.7838899999999</v>
       </c>
       <c r="I11">
-        <v>0.01770757191098638</v>
+        <v>0.05699896356653876</v>
       </c>
       <c r="J11">
-        <v>0.01770757191098637</v>
+        <v>0.05699896356653875</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>49.462564</v>
       </c>
       <c r="O11">
-        <v>0.3466554324170239</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="P11">
-        <v>0.346655432417024</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="Q11">
-        <v>1214.089316657202</v>
+        <v>4109.700946365995</v>
       </c>
       <c r="R11">
-        <v>10926.80384991481</v>
+        <v>36987.30851729395</v>
       </c>
       <c r="S11">
-        <v>0.00613842599785853</v>
+        <v>0.02000899902229158</v>
       </c>
       <c r="T11">
-        <v>0.006138425997858529</v>
+        <v>0.02000899902229158</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>73.63686100000001</v>
+        <v>249.2612966666667</v>
       </c>
       <c r="H12">
-        <v>220.910583</v>
+        <v>747.7838899999999</v>
       </c>
       <c r="I12">
-        <v>0.01770757191098638</v>
+        <v>0.05699896356653876</v>
       </c>
       <c r="J12">
-        <v>0.01770757191098637</v>
+        <v>0.05699896356653875</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.735891666666667</v>
+        <v>5.464566666666666</v>
       </c>
       <c r="N12">
-        <v>11.207675</v>
+        <v>16.3937</v>
       </c>
       <c r="O12">
-        <v>0.07854832239417409</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="P12">
-        <v>0.0785483223941741</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="Q12">
-        <v>275.0993353693917</v>
+        <v>1362.104973054778</v>
       </c>
       <c r="R12">
-        <v>2475.894018324526</v>
+        <v>12258.944757493</v>
       </c>
       <c r="S12">
-        <v>0.001390900067282179</v>
+        <v>0.006631712971283525</v>
       </c>
       <c r="T12">
-        <v>0.001390900067282179</v>
+        <v>0.006631712971283525</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>73.63686100000001</v>
+        <v>249.2612966666667</v>
       </c>
       <c r="H13">
-        <v>220.910583</v>
+        <v>747.7838899999999</v>
       </c>
       <c r="I13">
-        <v>0.01770757191098638</v>
+        <v>0.05699896356653876</v>
       </c>
       <c r="J13">
-        <v>0.01770757191098637</v>
+        <v>0.05699896356653875</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.62376966666667</v>
+        <v>17.60745533333333</v>
       </c>
       <c r="N13">
-        <v>55.871309</v>
+        <v>52.822366</v>
       </c>
       <c r="O13">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="P13">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="Q13">
-        <v>1371.39593824035</v>
+        <v>4388.857147387082</v>
       </c>
       <c r="R13">
-        <v>12342.56344416315</v>
+        <v>39499.71432648374</v>
       </c>
       <c r="S13">
-        <v>0.006933767034397716</v>
+        <v>0.02136813347664565</v>
       </c>
       <c r="T13">
-        <v>0.006933767034397715</v>
+        <v>0.02136813347664566</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.714644</v>
+        <v>13.67033766666667</v>
       </c>
       <c r="H14">
-        <v>23.143932</v>
+        <v>41.011013</v>
       </c>
       <c r="I14">
-        <v>0.001855152589919057</v>
+        <v>0.003126017111459632</v>
       </c>
       <c r="J14">
-        <v>0.001855152589919056</v>
+        <v>0.003126017111459632</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.714516333333334</v>
+        <v>7.407905</v>
       </c>
       <c r="N14">
-        <v>26.143549</v>
+        <v>22.223715</v>
       </c>
       <c r="O14">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="P14">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="Q14">
-        <v>67.229391143852</v>
+        <v>101.2685627525883</v>
       </c>
       <c r="R14">
-        <v>605.064520294668</v>
+        <v>911.4170647732949</v>
       </c>
       <c r="S14">
-        <v>0.00033991127074067</v>
+        <v>0.0004930486669345503</v>
       </c>
       <c r="T14">
-        <v>0.00033991127074067</v>
+        <v>0.0004930486669345503</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.714644</v>
+        <v>13.67033766666667</v>
       </c>
       <c r="H15">
-        <v>23.143932</v>
+        <v>41.011013</v>
       </c>
       <c r="I15">
-        <v>0.001855152589919057</v>
+        <v>0.003126017111459632</v>
       </c>
       <c r="J15">
-        <v>0.001855152589919056</v>
+        <v>0.003126017111459632</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>49.462564</v>
       </c>
       <c r="O15">
-        <v>0.3466554324170239</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="P15">
-        <v>0.346655432417024</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="Q15">
-        <v>127.195357529072</v>
+        <v>225.3899839130369</v>
       </c>
       <c r="R15">
-        <v>1144.758217761648</v>
+        <v>2028.509855217332</v>
       </c>
       <c r="S15">
-        <v>0.0006430987232579524</v>
+        <v>0.001097361590686565</v>
       </c>
       <c r="T15">
-        <v>0.0006430987232579524</v>
+        <v>0.001097361590686565</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.714644</v>
+        <v>13.67033766666667</v>
       </c>
       <c r="H16">
-        <v>23.143932</v>
+        <v>41.011013</v>
       </c>
       <c r="I16">
-        <v>0.001855152589919057</v>
+        <v>0.003126017111459632</v>
       </c>
       <c r="J16">
-        <v>0.001855152589919056</v>
+        <v>0.003126017111459632</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.735891666666667</v>
+        <v>5.464566666666666</v>
       </c>
       <c r="N16">
-        <v>11.207675</v>
+        <v>16.3937</v>
       </c>
       <c r="O16">
-        <v>0.07854832239417409</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="P16">
-        <v>0.0785483223941741</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="Q16">
-        <v>28.8210742309</v>
+        <v>74.70247153534444</v>
       </c>
       <c r="R16">
-        <v>259.3896680781</v>
+        <v>672.3222438180999</v>
       </c>
       <c r="S16">
-        <v>0.0001457191237233491</v>
+        <v>0.0003637057049698908</v>
       </c>
       <c r="T16">
-        <v>0.0001457191237233491</v>
+        <v>0.0003637057049698908</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.714644</v>
+        <v>13.67033766666667</v>
       </c>
       <c r="H17">
-        <v>23.143932</v>
+        <v>41.011013</v>
       </c>
       <c r="I17">
-        <v>0.001855152589919057</v>
+        <v>0.003126017111459632</v>
       </c>
       <c r="J17">
-        <v>0.001855152589919056</v>
+        <v>0.003126017111459632</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.62376966666667</v>
+        <v>17.60745533333333</v>
       </c>
       <c r="N17">
-        <v>55.871309</v>
+        <v>52.822366</v>
       </c>
       <c r="O17">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="P17">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="Q17">
-        <v>143.675752916332</v>
+        <v>240.6998598574176</v>
       </c>
       <c r="R17">
-        <v>1293.081776246988</v>
+        <v>2166.298738716758</v>
       </c>
       <c r="S17">
-        <v>0.0007264234721970852</v>
+        <v>0.001171901148868626</v>
       </c>
       <c r="T17">
-        <v>0.0007264234721970852</v>
+        <v>0.001171901148868626</v>
       </c>
     </row>
   </sheetData>
